--- a/BUKU/TabelFitur Appium yang digunakan.xlsx
+++ b/BUKU/TabelFitur Appium yang digunakan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t>Appium Driver</t>
   </si>
@@ -274,6 +274,9 @@
     <t>isLocked</t>
   </si>
   <si>
+    <t>https://www.javadoc.io/static/io.appium/java-client/4.1.0/io/appium/java_client/android/AndroidDriver.html</t>
+  </si>
+  <si>
     <t>lockDevices</t>
   </si>
   <si>
@@ -304,25 +307,58 @@
     <t>unlockdevice</t>
   </si>
   <si>
-    <t>iOS Driver</t>
-  </si>
-  <si>
-    <t>Tambahi sitik</t>
+    <t xml:space="preserve">Versi brapa </t>
+  </si>
+  <si>
+    <t>https://www.javadoc.io/static/io.appium/java-client/4.1.0/io/appium/java_client/ios/IOSDriver.html</t>
+  </si>
+  <si>
+    <t>iOS Driver (Reviewistic)</t>
   </si>
   <si>
     <t>execute</t>
   </si>
   <si>
+    <t>Terdapat 8 fitur pada proposal , namun fungsi hideKeyboard dengan parameter keyname dan strategy telah deprecated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telah digunakan 4 dari 8fitur pada iOSDriver yang tertulis pada proposal. </t>
+  </si>
+  <si>
     <t>getMouse</t>
   </si>
   <si>
-    <t>hideKeyboard</t>
+    <t>hideKeyboard(keyname)</t>
+  </si>
+  <si>
+    <t>pageObject Reviewistic_Pagebase setelah mensimulasikan sendText</t>
+  </si>
+  <si>
+    <t>HideKeyboard(strategy ,keyname)</t>
   </si>
   <si>
     <t>lockDevice</t>
   </si>
   <si>
     <t>shake</t>
+  </si>
+  <si>
+    <t>Digantikan dengan Touch Action pada pengujian refresh Review</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Presentase dipakai</t>
+  </si>
+  <si>
+    <t>tidak terpakai</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>dipakai</t>
   </si>
 </sst>
 </file>
@@ -330,12 +366,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +380,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -367,9 +410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +438,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,6 +464,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -425,29 +484,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,8 +523,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,12 +558,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,13 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +618,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,85 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,12 +714,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -731,6 +768,15 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -838,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,134 +902,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,20 +1045,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1333,13 +1397,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P83"/>
+  <dimension ref="A3:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.9444444444444" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
@@ -2146,21 +2214,21 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
@@ -2489,21 +2557,21 @@
       <c r="N52" s="2"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="2" t="s">
@@ -2601,26 +2669,26 @@
       <c r="A60">
         <v>4</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
       <c r="P60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2641,13 +2709,16 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
+      <c r="P61" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
         <v>6</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2668,28 +2739,28 @@
       <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
         <v>8</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2711,7 +2782,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2755,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2799,13 +2870,13 @@
         <v>13</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2821,7 +2892,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2830,7 +2901,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -2838,12 +2909,12 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2859,39 +2930,56 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
-    </row>
-    <row r="73" spans="2:16">
-      <c r="B73" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="P73" t="s">
+      <c r="P71" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="72" spans="16:16">
+      <c r="P72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="B74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="P74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2901,69 +2989,200 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="P75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>3</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="B76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>4</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>5</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="B78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>6</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="B79" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>7</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
-        <v>69</v>
+      <c r="B80" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" ht="15.15" spans="2:3">
+      <c r="B85" s="12">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" ht="23.4" spans="2:5">
+      <c r="B86" s="13">
+        <f>SUM(B83:B85)</f>
+        <v>70</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" ht="23.4" spans="1:5">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="D87" s="15">
+        <f>INT(60/70*100)</f>
+        <v>85</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" ht="15.15" spans="1:2">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="12">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="271">
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:H4"/>
@@ -3220,12 +3439,21 @@
     <mergeCell ref="L71:N71"/>
     <mergeCell ref="B73:N73"/>
     <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:N74"/>
     <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:N75"/>
     <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:N76"/>
     <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:N77"/>
     <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:N78"/>
     <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:N79"/>
     <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:N80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:N81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BUKU/TabelFitur Appium yang digunakan.xlsx
+++ b/BUKU/TabelFitur Appium yang digunakan.xlsx
@@ -366,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -382,14 +382,6 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,18 +402,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,14 +434,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -464,14 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -480,10 +456,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,6 +481,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +518,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -564,7 +564,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,37 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,73 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,43 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,21 +778,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,6 +845,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -884,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,134 +902,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,9 +1054,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,9 +1067,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1399,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A3:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2536,7 +2530,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>76</v>
@@ -2966,15 +2960,15 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
       <c r="P74" t="s">
         <v>101</v>
       </c>
@@ -2983,12 +2977,12 @@
       <c r="A75">
         <v>2</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3014,79 +3008,79 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
         <v>4</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
         <v>5</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
         <v>6</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
@@ -3098,26 +3092,26 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
         <v>8</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="2" t="s">
         <v>109</v>
       </c>
@@ -3132,7 +3126,7 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:2">
@@ -3140,8 +3134,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" ht="15.15" spans="2:3">
-      <c r="B85" s="12">
+    <row r="85" spans="2:3">
+      <c r="B85" s="11">
         <v>8</v>
       </c>
       <c r="C85" t="s">
@@ -3149,14 +3143,14 @@
       </c>
     </row>
     <row r="86" ht="23.4" spans="2:5">
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <f>SUM(B83:B85)</f>
-        <v>70</v>
-      </c>
-      <c r="D86" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="15"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" ht="23.4" spans="1:5">
       <c r="A87" t="s">
@@ -3165,11 +3159,11 @@
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="D87" s="15">
-        <f>INT(60/70*100)</f>
+      <c r="D87" s="13">
+        <f>INT(B88/B86*100)</f>
         <v>85</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3177,8 +3171,9 @@
       <c r="A88" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="12">
-        <v>60</v>
+      <c r="B88" s="11">
+        <f>B86-B87</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
